--- a/data/gbm_vertaaltabel_ctgb.xlsx
+++ b/data/gbm_vertaaltabel_ctgb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\KLADBLOK\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0251C15D-4771-4097-9E73-EF99CE7B8FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BE3367-8194-489E-9313-0207545B2FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vertaaltabel CTGB" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1596" uniqueCount="1068">
   <si>
     <t>parnr</t>
   </si>
@@ -1792,9 +1792,6 @@
     <t>carbamazepine</t>
   </si>
   <si>
-    <t>chlooramine-t</t>
-  </si>
-  <si>
     <t>Cldn</t>
   </si>
   <si>
@@ -2032,9 +2029,6 @@
     <t>fluazifop</t>
   </si>
   <si>
-    <t>fluazifop-p-butyl</t>
-  </si>
-  <si>
     <t>flrtmn</t>
   </si>
   <si>
@@ -2197,9 +2191,6 @@
     <t>quinmerac</t>
   </si>
   <si>
-    <t>quizalofop-p-ethyl</t>
-  </si>
-  <si>
     <t>sDDD</t>
   </si>
   <si>
@@ -2324,9 +2315,6 @@
   </si>
   <si>
     <t>propmcb</t>
-  </si>
-  <si>
-    <t>acibenzolar-s-methyl</t>
   </si>
   <si>
     <t>mepqCl</t>
@@ -3591,7 +3579,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3611,7 +3599,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4021,7 +4009,7 @@
         <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
         <v>19</v>
@@ -4595,7 +4583,7 @@
         <v>71</v>
       </c>
       <c r="C79" t="s">
-        <v>584</v>
+        <v>72</v>
       </c>
       <c r="D79" t="s">
         <v>73</v>
@@ -4620,10 +4608,10 @@
         <v>1074</v>
       </c>
       <c r="B81" t="s">
+        <v>584</v>
+      </c>
+      <c r="C81" t="s">
         <v>585</v>
-      </c>
-      <c r="C81" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -4659,10 +4647,10 @@
         <v>1077</v>
       </c>
       <c r="B84" t="s">
+        <v>586</v>
+      </c>
+      <c r="C84" t="s">
         <v>587</v>
-      </c>
-      <c r="C84" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -4684,10 +4672,10 @@
         <v>1079</v>
       </c>
       <c r="B86" t="s">
+        <v>588</v>
+      </c>
+      <c r="C86" t="s">
         <v>589</v>
-      </c>
-      <c r="C86" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -4751,10 +4739,10 @@
         <v>1084</v>
       </c>
       <c r="B91" t="s">
+        <v>590</v>
+      </c>
+      <c r="C91" t="s">
         <v>591</v>
-      </c>
-      <c r="C91" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -4762,10 +4750,10 @@
         <v>1085</v>
       </c>
       <c r="B92" t="s">
+        <v>592</v>
+      </c>
+      <c r="C92" t="s">
         <v>593</v>
-      </c>
-      <c r="C92" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -4773,10 +4761,10 @@
         <v>1086</v>
       </c>
       <c r="B93" t="s">
+        <v>594</v>
+      </c>
+      <c r="C93" t="s">
         <v>595</v>
-      </c>
-      <c r="C93" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -4784,10 +4772,10 @@
         <v>1087</v>
       </c>
       <c r="B94" t="s">
+        <v>596</v>
+      </c>
+      <c r="C94" t="s">
         <v>597</v>
-      </c>
-      <c r="C94" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -4795,10 +4783,10 @@
         <v>1088</v>
       </c>
       <c r="B95" t="s">
+        <v>598</v>
+      </c>
+      <c r="C95" t="s">
         <v>599</v>
-      </c>
-      <c r="C95" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -4848,10 +4836,10 @@
         <v>1092</v>
       </c>
       <c r="B99" t="s">
+        <v>600</v>
+      </c>
+      <c r="C99" t="s">
         <v>601</v>
-      </c>
-      <c r="C99" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -4859,10 +4847,10 @@
         <v>1093</v>
       </c>
       <c r="B100" t="s">
+        <v>602</v>
+      </c>
+      <c r="C100" t="s">
         <v>603</v>
-      </c>
-      <c r="C100" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -5024,10 +5012,10 @@
         <v>1105</v>
       </c>
       <c r="B112" t="s">
+        <v>604</v>
+      </c>
+      <c r="C112" t="s">
         <v>605</v>
-      </c>
-      <c r="C112" t="s">
-        <v>606</v>
       </c>
       <c r="D112" t="s">
         <v>229</v>
@@ -5052,10 +5040,10 @@
         <v>1107</v>
       </c>
       <c r="B114" t="s">
+        <v>606</v>
+      </c>
+      <c r="C114" t="s">
         <v>607</v>
-      </c>
-      <c r="C114" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -5063,10 +5051,10 @@
         <v>1108</v>
       </c>
       <c r="B115" t="s">
+        <v>608</v>
+      </c>
+      <c r="C115" t="s">
         <v>609</v>
-      </c>
-      <c r="C115" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -5074,10 +5062,10 @@
         <v>1109</v>
       </c>
       <c r="B116" t="s">
+        <v>610</v>
+      </c>
+      <c r="C116" t="s">
         <v>611</v>
-      </c>
-      <c r="C116" t="s">
-        <v>612</v>
       </c>
       <c r="D116" t="s">
         <v>423</v>
@@ -5088,13 +5076,13 @@
         <v>1110</v>
       </c>
       <c r="B117" t="s">
+        <v>612</v>
+      </c>
+      <c r="C117" t="s">
         <v>613</v>
       </c>
-      <c r="C117" t="s">
-        <v>614</v>
-      </c>
       <c r="D117" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -5158,10 +5146,10 @@
         <v>1115</v>
       </c>
       <c r="B122" t="s">
+        <v>614</v>
+      </c>
+      <c r="C122" t="s">
         <v>615</v>
-      </c>
-      <c r="C122" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -5183,10 +5171,10 @@
         <v>1117</v>
       </c>
       <c r="B124" t="s">
+        <v>616</v>
+      </c>
+      <c r="C124" t="s">
         <v>617</v>
-      </c>
-      <c r="C124" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -5194,13 +5182,13 @@
         <v>1118</v>
       </c>
       <c r="B125" t="s">
+        <v>618</v>
+      </c>
+      <c r="C125" t="s">
         <v>619</v>
       </c>
-      <c r="C125" t="s">
-        <v>620</v>
-      </c>
       <c r="D125" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -5208,10 +5196,10 @@
         <v>1119</v>
       </c>
       <c r="B126" t="s">
+        <v>620</v>
+      </c>
+      <c r="C126" t="s">
         <v>621</v>
-      </c>
-      <c r="C126" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -5233,10 +5221,10 @@
         <v>1121</v>
       </c>
       <c r="B128" t="s">
+        <v>622</v>
+      </c>
+      <c r="C128" t="s">
         <v>623</v>
-      </c>
-      <c r="C128" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -5342,10 +5330,10 @@
         <v>1129</v>
       </c>
       <c r="B136" t="s">
+        <v>624</v>
+      </c>
+      <c r="C136" t="s">
         <v>625</v>
-      </c>
-      <c r="C136" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -5381,13 +5369,13 @@
         <v>1132</v>
       </c>
       <c r="B139" t="s">
+        <v>626</v>
+      </c>
+      <c r="C139" t="s">
         <v>627</v>
       </c>
-      <c r="C139" t="s">
-        <v>628</v>
-      </c>
       <c r="D139" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -5395,13 +5383,13 @@
         <v>1133</v>
       </c>
       <c r="B140" t="s">
+        <v>628</v>
+      </c>
+      <c r="C140" t="s">
         <v>629</v>
       </c>
-      <c r="C140" t="s">
-        <v>630</v>
-      </c>
       <c r="D140" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -5434,10 +5422,10 @@
         <v>1135</v>
       </c>
       <c r="B143" t="s">
+        <v>630</v>
+      </c>
+      <c r="C143" t="s">
         <v>631</v>
-      </c>
-      <c r="C143" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -5445,10 +5433,10 @@
         <v>1136</v>
       </c>
       <c r="B144" t="s">
+        <v>632</v>
+      </c>
+      <c r="C144" t="s">
         <v>633</v>
-      </c>
-      <c r="C144" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -5456,10 +5444,10 @@
         <v>1137</v>
       </c>
       <c r="B145" t="s">
+        <v>634</v>
+      </c>
+      <c r="C145" t="s">
         <v>635</v>
-      </c>
-      <c r="C145" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -5523,10 +5511,10 @@
         <v>1142</v>
       </c>
       <c r="B150" t="s">
+        <v>636</v>
+      </c>
+      <c r="C150" t="s">
         <v>637</v>
-      </c>
-      <c r="C150" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -5534,10 +5522,10 @@
         <v>1143</v>
       </c>
       <c r="B151" t="s">
+        <v>638</v>
+      </c>
+      <c r="C151" t="s">
         <v>639</v>
-      </c>
-      <c r="C151" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -5573,10 +5561,10 @@
         <v>1146</v>
       </c>
       <c r="B154" t="s">
+        <v>640</v>
+      </c>
+      <c r="C154" t="s">
         <v>641</v>
-      </c>
-      <c r="C154" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -5584,10 +5572,10 @@
         <v>1147</v>
       </c>
       <c r="B155" t="s">
+        <v>642</v>
+      </c>
+      <c r="C155" t="s">
         <v>643</v>
-      </c>
-      <c r="C155" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -5595,10 +5583,10 @@
         <v>1148</v>
       </c>
       <c r="B156" t="s">
+        <v>644</v>
+      </c>
+      <c r="C156" t="s">
         <v>645</v>
-      </c>
-      <c r="C156" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -5634,10 +5622,10 @@
         <v>1150</v>
       </c>
       <c r="B159" t="s">
+        <v>646</v>
+      </c>
+      <c r="C159" t="s">
         <v>647</v>
-      </c>
-      <c r="C159" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -5645,10 +5633,10 @@
         <v>1151</v>
       </c>
       <c r="B160" t="s">
+        <v>648</v>
+      </c>
+      <c r="C160" t="s">
         <v>649</v>
-      </c>
-      <c r="C160" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -5712,13 +5700,13 @@
         <v>1155</v>
       </c>
       <c r="B165" t="s">
+        <v>650</v>
+      </c>
+      <c r="C165" t="s">
         <v>651</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>652</v>
-      </c>
-      <c r="D165" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -5768,13 +5756,13 @@
         <v>1159</v>
       </c>
       <c r="B169" t="s">
+        <v>653</v>
+      </c>
+      <c r="C169" t="s">
         <v>654</v>
       </c>
-      <c r="C169" t="s">
-        <v>655</v>
-      </c>
       <c r="D169" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -5796,13 +5784,13 @@
         <v>1161</v>
       </c>
       <c r="B171" t="s">
+        <v>655</v>
+      </c>
+      <c r="C171" t="s">
         <v>656</v>
       </c>
-      <c r="C171" t="s">
-        <v>657</v>
-      </c>
       <c r="D171" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -5838,10 +5826,10 @@
         <v>1164</v>
       </c>
       <c r="B174" t="s">
+        <v>657</v>
+      </c>
+      <c r="C174" t="s">
         <v>658</v>
-      </c>
-      <c r="C174" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -5849,10 +5837,10 @@
         <v>1165</v>
       </c>
       <c r="B175" t="s">
+        <v>659</v>
+      </c>
+      <c r="C175" t="s">
         <v>660</v>
-      </c>
-      <c r="C175" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -5902,10 +5890,10 @@
         <v>1169</v>
       </c>
       <c r="B179" t="s">
+        <v>661</v>
+      </c>
+      <c r="C179" t="s">
         <v>662</v>
-      </c>
-      <c r="C179" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -5930,7 +5918,7 @@
         <v>197</v>
       </c>
       <c r="C181" t="s">
-        <v>664</v>
+        <v>198</v>
       </c>
       <c r="D181" t="s">
         <v>198</v>
@@ -6039,10 +6027,10 @@
         <v>1178</v>
       </c>
       <c r="B189" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C189" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -6092,13 +6080,13 @@
         <v>1182</v>
       </c>
       <c r="B193" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C193" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D193" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -6190,10 +6178,10 @@
         <v>1188</v>
       </c>
       <c r="B200" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C200" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
@@ -6215,10 +6203,10 @@
         <v>1190</v>
       </c>
       <c r="B202" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C202" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
@@ -6251,10 +6239,10 @@
         <v>1192</v>
       </c>
       <c r="B205" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C205" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
@@ -6276,10 +6264,10 @@
         <v>1194</v>
       </c>
       <c r="B207" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C207" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
@@ -6385,10 +6373,10 @@
         <v>1202</v>
       </c>
       <c r="B215" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C215" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
@@ -6396,10 +6384,10 @@
         <v>1203</v>
       </c>
       <c r="B216" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C216" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
@@ -6407,10 +6395,10 @@
         <v>1204</v>
       </c>
       <c r="B217" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C217" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -6460,10 +6448,10 @@
         <v>1208</v>
       </c>
       <c r="B221" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C221" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
@@ -6583,13 +6571,13 @@
         <v>1217</v>
       </c>
       <c r="B230" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C230" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D230" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
@@ -6709,10 +6697,10 @@
         <v>1227</v>
       </c>
       <c r="B239" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C239" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
@@ -6720,10 +6708,10 @@
         <v>1228</v>
       </c>
       <c r="B240" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C240" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
@@ -6787,10 +6775,10 @@
         <v>1232</v>
       </c>
       <c r="B245" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C245" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
@@ -6798,10 +6786,10 @@
         <v>1233</v>
       </c>
       <c r="B246" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C246" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
@@ -6809,10 +6797,10 @@
         <v>1234</v>
       </c>
       <c r="B247" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C247" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
@@ -7005,7 +6993,7 @@
         <v>321</v>
       </c>
       <c r="C261" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
@@ -7013,10 +7001,10 @@
         <v>1245</v>
       </c>
       <c r="B262" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C262" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
@@ -7038,10 +7026,10 @@
         <v>1247</v>
       </c>
       <c r="B264" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C264" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
@@ -7063,13 +7051,13 @@
         <v>1249</v>
       </c>
       <c r="B266" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C266" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D266" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
@@ -7119,10 +7107,10 @@
         <v>1253</v>
       </c>
       <c r="B270" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C270" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
@@ -7186,10 +7174,10 @@
         <v>1258</v>
       </c>
       <c r="B275" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C275" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
@@ -7197,10 +7185,10 @@
         <v>1259</v>
       </c>
       <c r="B276" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C276" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
@@ -7236,13 +7224,13 @@
         <v>1262</v>
       </c>
       <c r="B279" t="s">
+        <v>708</v>
+      </c>
+      <c r="C279" t="s">
+        <v>709</v>
+      </c>
+      <c r="D279" t="s">
         <v>710</v>
-      </c>
-      <c r="C279" t="s">
-        <v>711</v>
-      </c>
-      <c r="D279" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
@@ -7348,10 +7336,10 @@
         <v>1269</v>
       </c>
       <c r="B287" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C287" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
@@ -7429,10 +7417,10 @@
         <v>1275</v>
       </c>
       <c r="B293" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C293" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
@@ -7566,13 +7554,13 @@
         <v>1285</v>
       </c>
       <c r="B303" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C303" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D303" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
@@ -7611,7 +7599,7 @@
         <v>393</v>
       </c>
       <c r="C306" t="s">
-        <v>719</v>
+        <v>394</v>
       </c>
       <c r="D306" t="s">
         <v>394</v>
@@ -7636,10 +7624,10 @@
         <v>1289</v>
       </c>
       <c r="B308" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C308" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
@@ -7647,10 +7635,10 @@
         <v>1290</v>
       </c>
       <c r="B309" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="C309" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
@@ -7658,10 +7646,10 @@
         <v>1291</v>
       </c>
       <c r="B310" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C310" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -7669,10 +7657,10 @@
         <v>1292</v>
       </c>
       <c r="B311" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C311" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
@@ -7680,10 +7668,10 @@
         <v>1293</v>
       </c>
       <c r="B312" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C312" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
@@ -7691,10 +7679,10 @@
         <v>1294</v>
       </c>
       <c r="B313" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C313" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -7702,13 +7690,13 @@
         <v>1295</v>
       </c>
       <c r="B314" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C314" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="D314" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
@@ -7761,7 +7749,7 @@
         <v>402</v>
       </c>
       <c r="C318" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D318" t="s">
         <v>404</v>
@@ -7789,7 +7777,7 @@
         <v>405</v>
       </c>
       <c r="C320" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D320" t="s">
         <v>407</v>
@@ -7884,10 +7872,10 @@
         <v>1306</v>
       </c>
       <c r="B327" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C327" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
@@ -7895,13 +7883,13 @@
         <v>1307</v>
       </c>
       <c r="B328" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C328" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="D328" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
@@ -7923,10 +7911,10 @@
         <v>1309</v>
       </c>
       <c r="B330" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="C330" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -7934,10 +7922,10 @@
         <v>1310</v>
       </c>
       <c r="B331" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="C331" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D331" t="s">
         <v>57</v>
@@ -8074,10 +8062,10 @@
         <v>1320</v>
       </c>
       <c r="B341" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C341" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
@@ -8085,13 +8073,13 @@
         <v>1321</v>
       </c>
       <c r="B342" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C342" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="D342" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
@@ -8099,10 +8087,10 @@
         <v>1322</v>
       </c>
       <c r="B343" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C343" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
@@ -8110,10 +8098,10 @@
         <v>1323</v>
       </c>
       <c r="B344" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C344" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
@@ -8121,10 +8109,10 @@
         <v>1324</v>
       </c>
       <c r="B345" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C345" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="D345" t="s">
         <v>343</v>
@@ -8135,10 +8123,10 @@
         <v>1325</v>
       </c>
       <c r="B346" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C346" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
@@ -8216,13 +8204,13 @@
         <v>1331</v>
       </c>
       <c r="B352" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C352" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D352" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
@@ -8230,10 +8218,10 @@
         <v>1332</v>
       </c>
       <c r="B353" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C353" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
@@ -8297,10 +8285,10 @@
         <v>1337</v>
       </c>
       <c r="B358" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="C358" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
@@ -8308,7 +8296,7 @@
         <v>1338</v>
       </c>
       <c r="B359" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="C359" t="s">
         <v>359</v>
@@ -8339,7 +8327,7 @@
         <v>461</v>
       </c>
       <c r="C361" t="s">
-        <v>762</v>
+        <v>462</v>
       </c>
       <c r="D361" t="s">
         <v>462</v>
@@ -8498,13 +8486,13 @@
         <v>1349</v>
       </c>
       <c r="B373" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C373" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="D373" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
@@ -8565,10 +8553,10 @@
         <v>1353</v>
       </c>
       <c r="B378" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="C378" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -8576,10 +8564,10 @@
         <v>1354</v>
       </c>
       <c r="B379" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="C379" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -8587,10 +8575,10 @@
         <v>1355</v>
       </c>
       <c r="B380" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C380" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
@@ -8598,10 +8586,10 @@
         <v>1356</v>
       </c>
       <c r="B381" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C381" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
@@ -8609,10 +8597,10 @@
         <v>1357</v>
       </c>
       <c r="B382" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C382" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -8645,7 +8633,7 @@
         <v>1359</v>
       </c>
       <c r="B385" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="C385" t="s">
         <v>155</v>
@@ -8659,10 +8647,10 @@
         <v>1360</v>
       </c>
       <c r="B386" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="C386" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
@@ -8684,13 +8672,13 @@
         <v>1362</v>
       </c>
       <c r="B388" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="C388" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="D388" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
@@ -8744,77 +8732,77 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -8844,7 +8832,7 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
@@ -8869,12 +8857,12 @@
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
@@ -8889,22 +8877,22 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -8919,47 +8907,47 @@
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
@@ -8969,7 +8957,7 @@
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
@@ -8984,7 +8972,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
@@ -8994,7 +8982,7 @@
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
@@ -9004,52 +8992,52 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
@@ -9059,37 +9047,37 @@
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
@@ -9104,17 +9092,17 @@
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
@@ -9124,12 +9112,12 @@
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
@@ -9139,7 +9127,7 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
@@ -9149,12 +9137,12 @@
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
@@ -9164,7 +9152,7 @@
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
@@ -9184,27 +9172,27 @@
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
@@ -9234,7 +9222,7 @@
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
@@ -9244,17 +9232,17 @@
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
@@ -9264,12 +9252,12 @@
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -9299,7 +9287,7 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
@@ -9324,17 +9312,17 @@
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
@@ -9354,7 +9342,7 @@
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
@@ -9364,22 +9352,22 @@
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
@@ -9399,7 +9387,7 @@
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
@@ -9419,7 +9407,7 @@
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
@@ -9454,7 +9442,7 @@
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
@@ -9464,7 +9452,7 @@
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
@@ -9474,7 +9462,7 @@
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
@@ -9494,12 +9482,12 @@
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
@@ -9509,27 +9497,27 @@
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
@@ -9554,7 +9542,7 @@
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
@@ -9579,7 +9567,7 @@
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
@@ -9594,7 +9582,7 @@
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
@@ -9604,17 +9592,17 @@
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
@@ -9629,12 +9617,12 @@
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
@@ -9644,7 +9632,7 @@
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
@@ -9684,22 +9672,22 @@
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
@@ -9709,7 +9697,7 @@
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
@@ -9719,7 +9707,7 @@
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
@@ -9729,7 +9717,7 @@
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
@@ -9739,32 +9727,32 @@
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
@@ -9784,12 +9772,12 @@
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
@@ -9809,7 +9797,7 @@
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
@@ -9829,7 +9817,7 @@
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
@@ -9849,7 +9837,7 @@
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
@@ -9859,12 +9847,12 @@
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
@@ -9874,12 +9862,12 @@
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
@@ -9889,12 +9877,12 @@
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
@@ -9904,7 +9892,7 @@
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
@@ -9914,17 +9902,17 @@
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
@@ -9934,7 +9922,7 @@
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
@@ -9944,7 +9932,7 @@
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
@@ -9959,7 +9947,7 @@
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
@@ -9969,17 +9957,17 @@
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
@@ -9994,27 +9982,27 @@
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
@@ -10024,7 +10012,7 @@
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
@@ -10034,27 +10022,27 @@
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
@@ -10064,7 +10052,7 @@
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
@@ -10079,12 +10067,12 @@
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
@@ -10094,17 +10082,17 @@
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
@@ -10114,12 +10102,12 @@
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
@@ -10129,12 +10117,12 @@
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
@@ -10154,17 +10142,17 @@
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
@@ -10174,7 +10162,7 @@
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
@@ -10189,82 +10177,82 @@
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
@@ -10274,7 +10262,7 @@
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
@@ -10289,12 +10277,12 @@
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
@@ -10319,12 +10307,12 @@
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
@@ -10334,22 +10322,22 @@
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
@@ -10359,7 +10347,7 @@
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
@@ -10369,12 +10357,12 @@
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
@@ -10384,7 +10372,7 @@
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
@@ -10409,12 +10397,12 @@
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
@@ -10424,12 +10412,12 @@
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
@@ -10439,7 +10427,7 @@
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
@@ -10449,12 +10437,12 @@
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
@@ -10474,22 +10462,22 @@
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
@@ -10529,7 +10517,7 @@
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
@@ -10539,7 +10527,7 @@
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
@@ -10549,47 +10537,47 @@
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
@@ -10599,12 +10587,12 @@
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
@@ -10614,17 +10602,17 @@
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
@@ -10634,7 +10622,7 @@
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
@@ -10644,12 +10632,12 @@
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
@@ -10659,12 +10647,12 @@
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
@@ -10674,27 +10662,27 @@
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
@@ -10709,7 +10697,7 @@
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
@@ -10729,22 +10717,22 @@
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
@@ -10759,17 +10747,17 @@
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
@@ -10784,7 +10772,7 @@
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
@@ -10804,12 +10792,12 @@
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
@@ -10824,12 +10812,12 @@
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
@@ -10859,12 +10847,12 @@
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
@@ -10879,7 +10867,7 @@
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
@@ -10894,7 +10882,7 @@
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
@@ -10919,7 +10907,7 @@
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
@@ -10929,22 +10917,22 @@
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
@@ -10959,7 +10947,7 @@
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
@@ -10969,12 +10957,12 @@
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
@@ -10984,12 +10972,12 @@
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
@@ -10999,17 +10987,17 @@
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
@@ -11039,27 +11027,27 @@
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
@@ -11079,12 +11067,12 @@
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
@@ -11109,22 +11097,22 @@
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
@@ -11134,37 +11122,37 @@
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
@@ -11179,12 +11167,12 @@
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
@@ -11194,12 +11182,12 @@
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
@@ -11219,7 +11207,7 @@
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
@@ -11234,7 +11222,7 @@
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
@@ -11244,12 +11232,12 @@
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
@@ -11264,7 +11252,7 @@
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
@@ -11284,7 +11272,7 @@
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
@@ -11294,7 +11282,7 @@
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
@@ -11304,7 +11292,7 @@
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
@@ -11314,7 +11302,7 @@
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
@@ -11324,37 +11312,37 @@
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
@@ -11364,17 +11352,17 @@
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
@@ -11384,52 +11372,52 @@
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
     </row>
   </sheetData>
